--- a/experiment.xlsx
+++ b/experiment.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruhma\Desktop\psych_ass2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruhma\Desktop\psych\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{684353A8-FF9C-4BF4-B207-8C1F64BBE278}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10416BE8-FFEC-4496-A5C8-82F97C7039F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2475" yWindow="2220" windowWidth="15375" windowHeight="7875" xr2:uid="{76A2F98E-1718-4C37-9D65-F0DEBAD30DC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{76A2F98E-1718-4C37-9D65-F0DEBAD30DC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="14">
   <si>
     <t>Pos_cue_exo</t>
   </si>
@@ -66,7 +66,13 @@
     <t>Image_arrow</t>
   </si>
   <si>
-    <t>square_yellow.png</t>
+    <t>doubleSidedArrow.png</t>
+  </si>
+  <si>
+    <t>leftArrow.png</t>
+  </si>
+  <si>
+    <t>rightArrow.png</t>
   </si>
 </sst>
 </file>
@@ -425,7 +431,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -433,7 +439,7 @@
     <col min="1" max="1" width="18.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" style="2" customWidth="1"/>
     <col min="5" max="5" width="19.140625" style="2" customWidth="1"/>
     <col min="6" max="6" width="18.42578125" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="2"/>
@@ -470,7 +476,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
@@ -490,7 +496,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>9</v>
@@ -510,7 +516,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>8</v>
@@ -519,7 +525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -530,7 +536,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>9</v>
@@ -550,7 +556,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>8</v>
@@ -570,7 +576,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>9</v>
@@ -590,7 +596,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>9</v>
@@ -610,7 +616,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>8</v>
@@ -619,7 +625,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>

--- a/experiment.xlsx
+++ b/experiment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruhma\Desktop\psych\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10416BE8-FFEC-4496-A5C8-82F97C7039F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{577FA88E-F049-43DC-AE5A-8C676AA8571A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{76A2F98E-1718-4C37-9D65-F0DEBAD30DC8}"/>
   </bookViews>
@@ -57,12 +57,6 @@
     <t>correctresp_endo</t>
   </si>
   <si>
-    <t>[-6,0]</t>
-  </si>
-  <si>
-    <t>[6,0]</t>
-  </si>
-  <si>
     <t>Image_arrow</t>
   </si>
   <si>
@@ -73,6 +67,12 @@
   </si>
   <si>
     <t>rightArrow.png</t>
+  </si>
+  <si>
+    <t>[-7,0]</t>
+  </si>
+  <si>
+    <t>[7,0]</t>
   </si>
 </sst>
 </file>
@@ -431,7 +431,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,7 +456,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -467,19 +467,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>3</v>
@@ -487,19 +487,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>4</v>
@@ -507,19 +507,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>3</v>
@@ -527,19 +527,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>5</v>
@@ -547,19 +547,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>3</v>
@@ -567,19 +567,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>5</v>
@@ -587,19 +587,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>3</v>
@@ -607,19 +607,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>5</v>
@@ -627,19 +627,19 @@
     </row>
     <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>5</v>

--- a/experiment.xlsx
+++ b/experiment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruhma\Desktop\psych\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{577FA88E-F049-43DC-AE5A-8C676AA8571A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9FF0467-6766-4301-AE6F-7B771BD0D0B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{76A2F98E-1718-4C37-9D65-F0DEBAD30DC8}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="19">
   <si>
     <t>Pos_cue_exo</t>
   </si>
@@ -73,6 +73,21 @@
   </si>
   <si>
     <t>[7,0]</t>
+  </si>
+  <si>
+    <t>exoType</t>
+  </si>
+  <si>
+    <t>valid</t>
+  </si>
+  <si>
+    <t>invalid</t>
+  </si>
+  <si>
+    <t>endoType</t>
+  </si>
+  <si>
+    <t>neutral</t>
   </si>
 </sst>
 </file>
@@ -428,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F616CA7-9B92-4CD6-B0DB-D3F80D4D12E4}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,10 +457,12 @@
     <col min="4" max="4" width="21.28515625" style="2" customWidth="1"/>
     <col min="5" max="5" width="19.140625" style="2" customWidth="1"/>
     <col min="6" max="6" width="18.42578125" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="2"/>
+    <col min="7" max="7" width="9.140625" style="2"/>
+    <col min="8" max="8" width="10.5703125" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -464,8 +481,14 @@
       <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -484,8 +507,14 @@
       <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -504,8 +533,14 @@
       <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -524,8 +559,14 @@
       <c r="F4" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -544,8 +585,14 @@
       <c r="F5" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -564,8 +611,14 @@
       <c r="F6" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -584,8 +637,14 @@
       <c r="F7" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -604,8 +663,14 @@
       <c r="F8" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -624,8 +689,14 @@
       <c r="F9" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -643,6 +714,12 @@
       </c>
       <c r="F10" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
